--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/88.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/88.xlsx
@@ -479,13 +479,13 @@
         <v>-0.388133017731328</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.320532239597812</v>
+        <v>-1.318358227990449</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1655363764669407</v>
+        <v>-0.1676461459583037</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1279751792802235</v>
+        <v>-0.1294980094390413</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.4252910175450809</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.388666843808158</v>
+        <v>-1.388094504956521</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2331468234126498</v>
+        <v>-0.2357150480045582</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1329933645686767</v>
+        <v>-0.1336985677965856</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.4557719763819446</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.491838222056039</v>
+        <v>-1.492020728067403</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2800844494391826</v>
+        <v>-0.2819270301299094</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1377195402389481</v>
+        <v>-0.1385357071217661</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.453104629422347</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.642937138936089</v>
+        <v>-1.64488192299318</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2911589142087251</v>
+        <v>-0.2923473933547248</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1483136491865817</v>
+        <v>-0.1488334263069452</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4193210270359869</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.737481093014791</v>
+        <v>-1.739323673705518</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2899339338604527</v>
+        <v>-0.2914348632979069</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1670168652311221</v>
+        <v>-0.1663525433497586</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3690978057374386</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.577754751965561</v>
+        <v>-1.57985722121647</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2227834020633798</v>
+        <v>-0.2242916317412885</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1747273791992109</v>
+        <v>-0.1728760382199387</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.320901141749052</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.420361567765604</v>
+        <v>-1.42096602767524</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.145590659497037</v>
+        <v>-0.1481121625500363</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1535201806787621</v>
+        <v>-0.1527667958638532</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2832411687451317</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.150810409318222</v>
+        <v>-1.151197322062312</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.003583462079075078</v>
+        <v>-0.006529839126528833</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1314734545060407</v>
+        <v>-0.1298586413174957</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2549405048038995</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7808035620720482</v>
+        <v>-0.780039956920503</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08234328816708367</v>
+        <v>0.0798480659797207</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1184746463526806</v>
+        <v>-0.116756169749681</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2292640838750739</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4071845558489667</v>
+        <v>-0.4047126944310583</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1266236266681627</v>
+        <v>0.1224727099457093</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07393587933951073</v>
+        <v>-0.07316351389942002</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2006061796773199</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0612850145519075</v>
+        <v>0.06430293395581578</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1393902871750684</v>
+        <v>0.1360891184415238</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02741773903518932</v>
+        <v>0.02781049197164377</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1622979566983506</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6016444328529442</v>
+        <v>0.6045397082172161</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05925700775363532</v>
+        <v>0.05587553637509077</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1776260265797854</v>
+        <v>0.179439406308694</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.109846855593135</v>
       </c>
       <c r="E14" t="n">
-        <v>1.16539674166652</v>
+        <v>1.168673089582519</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0888853117423249</v>
+        <v>-0.09077607402005167</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3064971713238416</v>
+        <v>0.3082229481672957</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.0392566485412455</v>
       </c>
       <c r="E15" t="n">
-        <v>1.813703355520801</v>
+        <v>1.816017531744891</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2588860112072793</v>
+        <v>-0.2587823477928247</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4882775387862474</v>
+        <v>0.4896134827894288</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.05052408272822932</v>
       </c>
       <c r="E16" t="n">
-        <v>2.440004124548905</v>
+        <v>2.444096639347722</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4961204652104883</v>
+        <v>-0.4956503297252157</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6056026232273977</v>
+        <v>0.6073284000708518</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1589685600725236</v>
       </c>
       <c r="E17" t="n">
-        <v>3.050753921360741</v>
+        <v>3.055388114001286</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.630085717743725</v>
+        <v>-0.630230262504725</v>
       </c>
       <c r="G17" t="n">
-        <v>0.792282912082893</v>
+        <v>0.7937371199814381</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2839107859011048</v>
       </c>
       <c r="E18" t="n">
-        <v>3.648999866322035</v>
+        <v>3.656437351297124</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7529414643532375</v>
+        <v>-0.7533575780591465</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9353223635011274</v>
+        <v>0.9355311503781273</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4233456059522854</v>
       </c>
       <c r="E19" t="n">
-        <v>4.183031436197074</v>
+        <v>4.190503962326344</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9115596289014676</v>
+        <v>-0.9113099606779222</v>
       </c>
       <c r="G19" t="n">
-        <v>1.087567418132541</v>
+        <v>1.087993752175086</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5735617768901619</v>
       </c>
       <c r="E20" t="n">
-        <v>4.72621750760211</v>
+        <v>4.733827278251925</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.125925349656774</v>
+        <v>-1.126499148556501</v>
       </c>
       <c r="G20" t="n">
-        <v>1.246819243552226</v>
+        <v>1.247141914180316</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7230844668804177</v>
       </c>
       <c r="E21" t="n">
-        <v>5.18467114809935</v>
+        <v>5.194082618093347</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.28233592149155</v>
+        <v>-1.283087846258368</v>
       </c>
       <c r="G21" t="n">
-        <v>1.422667435621269</v>
+        <v>1.423337597694996</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8597154551609256</v>
       </c>
       <c r="E22" t="n">
-        <v>5.588913202981151</v>
+        <v>5.598180128214148</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.489442283138858</v>
+        <v>-1.490292031127767</v>
       </c>
       <c r="G22" t="n">
-        <v>1.538827401685874</v>
+        <v>1.538855142599602</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9727211215666933</v>
       </c>
       <c r="E23" t="n">
-        <v>5.859667441055441</v>
+        <v>5.870302431349621</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.66851718148881</v>
+        <v>-1.670342241602446</v>
       </c>
       <c r="G23" t="n">
-        <v>1.699358229233195</v>
+        <v>1.699899907074922</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.056116952818739</v>
       </c>
       <c r="E24" t="n">
-        <v>6.164799971478269</v>
+        <v>6.17502030811463</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.841656984349218</v>
+        <v>-1.842797281908218</v>
       </c>
       <c r="G24" t="n">
-        <v>1.813960323984801</v>
+        <v>1.813526689701801</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.108291613808053</v>
       </c>
       <c r="E25" t="n">
-        <v>6.377688123565575</v>
+        <v>6.387247058416754</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.976917299539091</v>
+        <v>-1.978237913037318</v>
       </c>
       <c r="G25" t="n">
-        <v>1.917290847474591</v>
+        <v>1.915975344144682</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.130674365543341</v>
       </c>
       <c r="E26" t="n">
-        <v>6.477932105391185</v>
+        <v>6.486752255908364</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.084445461290243</v>
+        <v>-2.084681259056925</v>
       </c>
       <c r="G26" t="n">
-        <v>1.980913903084028</v>
+        <v>1.980147377836301</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.127901408854545</v>
       </c>
       <c r="E27" t="n">
-        <v>6.531134797775807</v>
+        <v>6.540376902191259</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.17313170242822</v>
+        <v>-2.172531622662856</v>
       </c>
       <c r="G27" t="n">
-        <v>2.063403700124188</v>
+        <v>2.062207920737734</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.10501507102938</v>
       </c>
       <c r="E28" t="n">
-        <v>6.641898426096414</v>
+        <v>6.650944884067684</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.233233852066431</v>
+        <v>-2.231796434720931</v>
       </c>
       <c r="G28" t="n">
-        <v>2.092990114638362</v>
+        <v>2.092350613574544</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.066301705314334</v>
       </c>
       <c r="E29" t="n">
-        <v>6.578933852175975</v>
+        <v>6.588111714475428</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.293623631178551</v>
+        <v>-2.292344629050915</v>
       </c>
       <c r="G29" t="n">
-        <v>2.13958316931544</v>
+        <v>2.13828080641835</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.015465619429401</v>
       </c>
       <c r="E30" t="n">
-        <v>6.544018262129985</v>
+        <v>6.554859119204982</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.329318886905087</v>
+        <v>-2.327547118546769</v>
       </c>
       <c r="G30" t="n">
-        <v>2.12423806387999</v>
+        <v>2.122734214346354</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9565384849211263</v>
       </c>
       <c r="E31" t="n">
-        <v>6.455174335798191</v>
+        <v>6.465882328496915</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.311422347430773</v>
+        <v>-2.309199424212365</v>
       </c>
       <c r="G31" t="n">
-        <v>2.107830043434358</v>
+        <v>2.105079312831086</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8933288707556013</v>
       </c>
       <c r="E32" t="n">
-        <v>6.280822693022328</v>
+        <v>6.290529092730689</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.316982940585</v>
+        <v>-2.314948363570318</v>
       </c>
       <c r="G32" t="n">
-        <v>2.044329631864557</v>
+        <v>2.042549833241739</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8296292265100493</v>
       </c>
       <c r="E33" t="n">
-        <v>6.095457907496741</v>
+        <v>6.107272616648375</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.340686091316857</v>
+        <v>-2.337483475829448</v>
       </c>
       <c r="G33" t="n">
-        <v>1.978049288729665</v>
+        <v>1.977079816797302</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.768489033839995</v>
       </c>
       <c r="E34" t="n">
-        <v>5.857235000935987</v>
+        <v>5.868109439117076</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.382204018829936</v>
+        <v>-2.381283458508618</v>
       </c>
       <c r="G34" t="n">
-        <v>1.895152138272142</v>
+        <v>1.893508124121779</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7119068070725338</v>
       </c>
       <c r="E35" t="n">
-        <v>5.632203628876593</v>
+        <v>5.643098507730954</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.369976116068576</v>
+        <v>-2.369025624761394</v>
       </c>
       <c r="G35" t="n">
-        <v>1.82655615886507</v>
+        <v>1.825172033274888</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6603802292607235</v>
       </c>
       <c r="E36" t="n">
-        <v>5.442701067061371</v>
+        <v>5.453296636057096</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.330012409748269</v>
+        <v>-2.330213166360768</v>
       </c>
       <c r="G36" t="n">
-        <v>1.739188341153184</v>
+        <v>1.737297578875457</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6127592093191249</v>
       </c>
       <c r="E37" t="n">
-        <v>5.081236961195105</v>
+        <v>5.091136087251466</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.270440987591103</v>
+        <v>-2.270189859319466</v>
       </c>
       <c r="G37" t="n">
-        <v>1.651166421896572</v>
+        <v>1.650316673907663</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5681174335446068</v>
       </c>
       <c r="E38" t="n">
-        <v>4.805184208598907</v>
+        <v>4.816829552171995</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.164352433257586</v>
+        <v>-2.165392717522358</v>
       </c>
       <c r="G38" t="n">
-        <v>1.550158834919417</v>
+        <v>1.550729713722962</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5245275154340127</v>
       </c>
       <c r="E39" t="n">
-        <v>4.511402092034803</v>
+        <v>4.523082476762073</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.14627630786809</v>
+        <v>-2.147650213121636</v>
       </c>
       <c r="G39" t="n">
-        <v>1.437856315910992</v>
+        <v>1.43889733019981</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4815944465171919</v>
       </c>
       <c r="E40" t="n">
-        <v>4.243410264948512</v>
+        <v>4.254553351978327</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.117454958553553</v>
+        <v>-2.118708409839598</v>
       </c>
       <c r="G40" t="n">
-        <v>1.383381921639189</v>
+        <v>1.382825643316553</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4378056175421416</v>
       </c>
       <c r="E41" t="n">
-        <v>3.9501435453605</v>
+        <v>3.959817824010861</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.027711642597759</v>
+        <v>-2.028962173787622</v>
       </c>
       <c r="G41" t="n">
-        <v>1.262901673273585</v>
+        <v>1.262545421539403</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3927759125132955</v>
       </c>
       <c r="E42" t="n">
-        <v>3.69647186994984</v>
+        <v>3.705042352243475</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.933187399168284</v>
+        <v>-1.934167091437284</v>
       </c>
       <c r="G42" t="n">
-        <v>1.157886254286886</v>
+        <v>1.157692067890795</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3458135935845891</v>
       </c>
       <c r="E43" t="n">
-        <v>3.425142372927731</v>
+        <v>3.434431198882093</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.865382035802439</v>
+        <v>-1.866666148098393</v>
       </c>
       <c r="G43" t="n">
-        <v>1.064688464548002</v>
+        <v>1.064719125557911</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2970961439795489</v>
       </c>
       <c r="E44" t="n">
-        <v>3.15662054838444</v>
+        <v>3.16611670116771</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.825483301622177</v>
+        <v>-1.826309688841631</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9303888610019468</v>
+        <v>0.9309801804787649</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2471575924368695</v>
       </c>
       <c r="E45" t="n">
-        <v>2.898938120868054</v>
+        <v>2.908247387495689</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.743176740617426</v>
+        <v>-1.743113958549517</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8106649175474335</v>
+        <v>0.8104035689391609</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1965904925712489</v>
       </c>
       <c r="E46" t="n">
-        <v>2.651137298830939</v>
+        <v>2.659246405927846</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.695539751555348</v>
+        <v>-1.69472358467253</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7692740142182628</v>
+        <v>0.769592304702081</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1474088903916011</v>
       </c>
       <c r="E47" t="n">
-        <v>2.35098207235002</v>
+        <v>2.359151041418654</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.648482401585361</v>
+        <v>-1.647894002204724</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6629533122382913</v>
+        <v>0.6626525423315642</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1009806610714908</v>
       </c>
       <c r="E48" t="n">
-        <v>2.160086624656071</v>
+        <v>2.167531409871615</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.614477881548097</v>
+        <v>-1.613667554857643</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6006282393816718</v>
+        <v>0.6004369730817627</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.05877813943235702</v>
       </c>
       <c r="E49" t="n">
-        <v>1.962447214830215</v>
+        <v>1.970043845047213</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.566221832095474</v>
+        <v>-1.565074234296019</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5397967957220517</v>
+        <v>0.5393456408619609</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.0212254995532799</v>
       </c>
       <c r="E50" t="n">
-        <v>1.851311274246427</v>
+        <v>1.857706284884607</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.493454495292675</v>
+        <v>-1.492019268019312</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4784441148939773</v>
+        <v>0.4781112239292501</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.01196737553258978</v>
       </c>
       <c r="E51" t="n">
-        <v>1.674576832986202</v>
+        <v>1.680855039777109</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.43684113056769</v>
+        <v>-1.434557615353509</v>
       </c>
       <c r="G51" t="n">
-        <v>0.419951668275993</v>
+        <v>0.4201502348163566</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.04145912320193645</v>
       </c>
       <c r="E52" t="n">
-        <v>1.556277896468415</v>
+        <v>1.562402798209777</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.397444652930701</v>
+        <v>-1.394686622086974</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3393351129364692</v>
+        <v>0.3391569870693784</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.06872083695804217</v>
       </c>
       <c r="E53" t="n">
-        <v>1.380574249160371</v>
+        <v>1.38511937886737</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.359353458286984</v>
+        <v>-1.357148785669712</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2721290993119418</v>
+        <v>0.2724853510461235</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.09509307129654559</v>
       </c>
       <c r="E54" t="n">
-        <v>1.32705180624384</v>
+        <v>1.332808775866293</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.340521758010443</v>
+        <v>-1.338321465537444</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2215953748375008</v>
+        <v>0.220536839971592</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1219971188759437</v>
       </c>
       <c r="E55" t="n">
-        <v>1.205556824455055</v>
+        <v>1.210125314931508</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.303870170784362</v>
+        <v>-1.30217943509509</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1634591799536982</v>
+        <v>0.1645016542906071</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1497575668156262</v>
       </c>
       <c r="E56" t="n">
-        <v>1.175107521519154</v>
+        <v>1.180041024018334</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.251836976920558</v>
+        <v>-1.249283352809559</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1024685910521692</v>
+        <v>0.1043170119352596</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1788468321295254</v>
       </c>
       <c r="E57" t="n">
-        <v>1.083926058193815</v>
+        <v>1.089087328195177</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.242723356737106</v>
+        <v>-1.240926037537197</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05903946058808993</v>
+        <v>0.06088788147118034</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2096059483964141</v>
       </c>
       <c r="E58" t="n">
-        <v>1.029599128779193</v>
+        <v>1.035434940998555</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.205150479165662</v>
+        <v>-1.203361920254298</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01822628438279842</v>
+        <v>-0.01618221705552624</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2420454190938734</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9211701173559493</v>
+        <v>0.9267460410151297</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.121570026201593</v>
+        <v>-1.11944419618123</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09495181156005054</v>
+        <v>-0.09258653365277845</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.275636619356083</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8950045955187745</v>
+        <v>0.902720949679227</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.10230031149778</v>
+        <v>-1.100408089171962</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1221393670608614</v>
+        <v>-0.1195098204491349</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3091378321026607</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7627505193480828</v>
+        <v>0.76979963153099</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.073163591795606</v>
+        <v>-1.070561786097607</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.151410411187399</v>
+        <v>-0.1483735111583089</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3418638217818115</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7234197438751843</v>
+        <v>0.7302659093734551</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.067822735879062</v>
+        <v>-1.06536109479779</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2257940212268336</v>
+        <v>-0.2235572275515615</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3726901002090773</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6320207333842998</v>
+        <v>0.6393049133098432</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.102425875633598</v>
+        <v>-1.100111699409508</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2413683542125567</v>
+        <v>-0.2385796623589211</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4007059863410601</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5403574541889606</v>
+        <v>0.5497616239425036</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.089031394447602</v>
+        <v>-1.086207661439784</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2926569235499974</v>
+        <v>-0.2891060865929075</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4257579412363457</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4547270937052564</v>
+        <v>0.4646890018295264</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.056434360769974</v>
+        <v>-1.053927458197884</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3259445599746249</v>
+        <v>-0.3216578587797169</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4473503264005566</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4064958650701784</v>
+        <v>0.4159963979977214</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.071995553322879</v>
+        <v>-1.069598154357607</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3543804565931627</v>
+        <v>-0.3503156827080729</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4649826384825457</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3766700026690956</v>
+        <v>0.3876583246012744</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.090907556244419</v>
+        <v>-1.087959719148875</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3889485551935171</v>
+        <v>-0.3836471205754275</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4778058502401293</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2971484833977532</v>
+        <v>0.3083032508122957</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.105611700567961</v>
+        <v>-1.103303364536234</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3984870493714236</v>
+        <v>-0.3941361060605156</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4849351527108979</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1919943598424179</v>
+        <v>0.2039682142359601</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.146475526536314</v>
+        <v>-1.144730769067678</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4226464651316898</v>
+        <v>-0.4172369869548731</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4856208259585665</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1288998416418893</v>
+        <v>0.1405130641569771</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.194670253969119</v>
+        <v>-1.192665607940301</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4389435219224127</v>
+        <v>-0.4342874285605049</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4792944859364739</v>
       </c>
       <c r="E71" t="n">
-        <v>0.07939107092726627</v>
+        <v>0.08969755040099078</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.279643592811914</v>
+        <v>-1.279145716412914</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4988711958137603</v>
+        <v>-0.4948721240927613</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4655758206234176</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.008064349670073875</v>
+        <v>0.003116698610104941</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.31583672493745</v>
+        <v>-1.315213284402632</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4928557976792164</v>
+        <v>-0.4888859269200357</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4455642897488691</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.02130406575843396</v>
+        <v>-0.01049094959716413</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.306070463257362</v>
+        <v>-1.305419281808816</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5427646215707485</v>
+        <v>-0.5389159348031132</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4203174672203028</v>
       </c>
       <c r="E74" t="n">
-        <v>0.009035733570648807</v>
+        <v>0.01953201929619144</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.346240766382533</v>
+        <v>-1.345761870608715</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5270953854591163</v>
+        <v>-0.5243227541344807</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3906061289672018</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01420138371628378</v>
+        <v>0.02500135944473543</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.396097028542792</v>
+        <v>-1.396009425657338</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4783443797036749</v>
+        <v>-0.4751162133746757</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3568372972010749</v>
       </c>
       <c r="E76" t="n">
-        <v>0.06665507143026969</v>
+        <v>0.07624466729135804</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.342519103798806</v>
+        <v>-1.342157011872261</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4889151278818539</v>
+        <v>-0.4855467969361275</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3199531234358944</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1798102585237848</v>
+        <v>0.1894611764046913</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.340721784598898</v>
+        <v>-1.34041955464408</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4343399902917776</v>
+        <v>-0.4313279110802329</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.280789892751235</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2656786068463072</v>
+        <v>0.2738096146645777</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.306752305715816</v>
+        <v>-1.306423794895362</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4350977552509592</v>
+        <v>-0.4328828622970507</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2395937056895472</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3585960673517368</v>
+        <v>0.365788264247553</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.323893270303084</v>
+        <v>-1.321079757631903</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4032219853302405</v>
+        <v>-0.401055273963332</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1977640889773262</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4625149902221634</v>
+        <v>0.4681332552759801</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.338607634963262</v>
+        <v>-1.337381194566899</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3446156549611653</v>
+        <v>-0.3431395463412567</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1568537575681064</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5624333813235002</v>
+        <v>0.5665536370360446</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.286472237733094</v>
+        <v>-1.28558160839764</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2928905312445428</v>
+        <v>-0.2918217760419977</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1188847760811534</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6996107396567361</v>
+        <v>0.7021497632868263</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.22232356481093</v>
+        <v>-1.220244456329476</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2597226187633699</v>
+        <v>-0.2585399798097339</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.08412397156104737</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8558636262976942</v>
+        <v>0.8574842796786027</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.16559047614249</v>
+        <v>-1.164333374736218</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2163445899824725</v>
+        <v>-0.215361977617291</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.05262558594266413</v>
       </c>
       <c r="E84" t="n">
-        <v>1.025928567878649</v>
+        <v>1.026454185191376</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.075068954554242</v>
+        <v>-1.073286235835242</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1651377833381226</v>
+        <v>-0.165787504738577</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.02400121873306877</v>
       </c>
       <c r="E85" t="n">
-        <v>1.121747143940714</v>
+        <v>1.120260814984169</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.004904883497533</v>
+        <v>-1.00231329813617</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1308602343078591</v>
+        <v>-0.1314807547464953</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.002984750142423243</v>
       </c>
       <c r="E86" t="n">
-        <v>1.288189706208124</v>
+        <v>1.285095864303488</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.928472825986554</v>
+        <v>-0.9260506062037365</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04570146935751832</v>
+        <v>-0.0466724013379726</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.0289301098762012</v>
       </c>
       <c r="E87" t="n">
-        <v>1.385444969591643</v>
+        <v>1.38319065533928</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8281748223815809</v>
+        <v>-0.8259380287063088</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0166961539835261</v>
+        <v>-0.01736631605725319</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.05376531174097933</v>
       </c>
       <c r="E88" t="n">
-        <v>1.472833227976801</v>
+        <v>1.470387647424529</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6998380552387972</v>
+        <v>-0.6986437359004339</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03473257997064191</v>
+        <v>0.03381566976955124</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.07516359566880584</v>
       </c>
       <c r="E89" t="n">
-        <v>1.57037612083423</v>
+        <v>1.567958281195685</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5684629280188325</v>
+        <v>-0.5664758025671057</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07992106838426613</v>
+        <v>0.07951663506308443</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.09050963282597857</v>
       </c>
       <c r="E90" t="n">
-        <v>1.631614917911213</v>
+        <v>1.627887415135123</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4394574588504126</v>
+        <v>-0.4382003574441402</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09351849625489884</v>
+        <v>0.0924701817256264</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.09823181538190245</v>
       </c>
       <c r="E91" t="n">
-        <v>1.676480735696747</v>
+        <v>1.671652356660111</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2802888561719099</v>
+        <v>-0.2781571859591832</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1080240740380768</v>
+        <v>0.1066968903234408</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.09780894951232935</v>
       </c>
       <c r="E92" t="n">
-        <v>1.706359159829102</v>
+        <v>1.701368715454376</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1200850793969529</v>
+        <v>-0.1192616122736804</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1035884479378961</v>
+        <v>0.1036921113523507</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.09000994549310483</v>
       </c>
       <c r="E93" t="n">
-        <v>1.702587855610285</v>
+        <v>1.697557989937104</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03899008020373167</v>
+        <v>0.03864404880618631</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09944921160016998</v>
+        <v>0.09931050703153366</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.07792460870409204</v>
       </c>
       <c r="E94" t="n">
-        <v>1.651354768100299</v>
+        <v>1.645853306893755</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1498734324677928</v>
+        <v>0.1483608226456114</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06043672661108955</v>
+        <v>0.06018705838754417</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.06434991239508446</v>
       </c>
       <c r="E95" t="n">
-        <v>1.561958943590141</v>
+        <v>1.555474870018415</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2349051732342245</v>
+        <v>0.2330815731686796</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01165943999001174</v>
+        <v>0.01165651989382992</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.04987250310389209</v>
       </c>
       <c r="E96" t="n">
-        <v>1.438621381110629</v>
+        <v>1.432407416435721</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3144602736116577</v>
+        <v>0.3123724048416583</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02888609549452283</v>
+        <v>-0.02828455568106844</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.03562595759313295</v>
       </c>
       <c r="E97" t="n">
-        <v>1.284501624730488</v>
+        <v>1.277959149235126</v>
       </c>
       <c r="F97" t="n">
-        <v>0.363677034708099</v>
+        <v>0.3622841488293722</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04959541761597181</v>
+        <v>-0.04888291414760837</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.02301894111839168</v>
       </c>
       <c r="E98" t="n">
-        <v>1.151073669894706</v>
+        <v>1.145554688111071</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3827087615730939</v>
+        <v>0.381683807813276</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08693468749287088</v>
+        <v>-0.08608639955205293</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.01433190221247421</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9963903349514746</v>
+        <v>0.9920131107749303</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3776964164770044</v>
+        <v>0.3768817096422773</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1273050172064964</v>
+        <v>-0.1264494290252239</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.006120149875791586</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8873933648208675</v>
+        <v>0.8841666585399592</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3467404768535581</v>
+        <v>0.3464309466582855</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1419332390293107</v>
+        <v>-0.1407914814222201</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.002781451006094369</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7462067144299963</v>
+        <v>0.7440327028226332</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3475785444577397</v>
+        <v>0.3478209124408306</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1342300253016764</v>
+        <v>-0.133405098130313</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.02003277240946027</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6331435103662085</v>
+        <v>0.6302759759156638</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3050385832810238</v>
+        <v>0.3051831280420239</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.194524171263842</v>
+        <v>-0.1947008370828419</v>
       </c>
     </row>
   </sheetData>
